--- a/biology/Zoologie/Borneojapetus_longipes/Borneojapetus_longipes.xlsx
+++ b/biology/Zoologie/Borneojapetus_longipes/Borneojapetus_longipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Borneojapetus longipes, unique représentant du genre Borneojapetus, est une espèce d'opilions laniatores de la famille des Podoctidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bornéo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bornéo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Japetus longipes par Roewer en 1949. Le nom Japetus Roewer, 1949 étant préoccupé par Japetus Distant, 1883, il est remplacé par Borneojapetus par Özdikmen en 2006[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Japetus longipes par Roewer en 1949. Le nom Japetus Roewer, 1949 étant préoccupé par Japetus Distant, 1883, il est remplacé par Borneojapetus par Özdikmen en 2006.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roewer, 1949 : « Über Phalangodidae II. Weitere Weberknechte XIV. » Senckenbergiana, vol. 30, p. 247–289.
 Özdikmen, 2006 : « Nomenclatural changes for some Laniatores (Opiliones) genera: New substitute names and new combinations. » Munis Entomology &amp; Zoology, vol. 1, no 1, p. 63–68 (texte intégral).</t>
